--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H2">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I2">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J2">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N2">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O2">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P2">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q2">
-        <v>9.261667732247666</v>
+        <v>5.042761218825778</v>
       </c>
       <c r="R2">
-        <v>83.355009590229</v>
+        <v>45.38485096943199</v>
       </c>
       <c r="S2">
-        <v>0.002885683161239438</v>
+        <v>0.002692599722371865</v>
       </c>
       <c r="T2">
-        <v>0.002885683161239438</v>
+        <v>0.002692599722371865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H3">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I3">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J3">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.032622</v>
       </c>
       <c r="O3">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P3">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q3">
-        <v>44.92601740093712</v>
+        <v>35.76305995372712</v>
       </c>
       <c r="R3">
-        <v>404.3341566084341</v>
+        <v>321.867539583544</v>
       </c>
       <c r="S3">
-        <v>0.01399772218820163</v>
+        <v>0.01909580904665495</v>
       </c>
       <c r="T3">
-        <v>0.01399772218820163</v>
+        <v>0.01909580904665495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H4">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I4">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J4">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N4">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O4">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P4">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q4">
-        <v>12.04218899431167</v>
+        <v>2.313213936348445</v>
       </c>
       <c r="R4">
-        <v>108.379700948805</v>
+        <v>20.818925427136</v>
       </c>
       <c r="S4">
-        <v>0.003752017780162232</v>
+        <v>0.001235148549081785</v>
       </c>
       <c r="T4">
-        <v>0.003752017780162232</v>
+        <v>0.001235148549081785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H5">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I5">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J5">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N5">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O5">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P5">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q5">
-        <v>98.25728667861745</v>
+        <v>83.34198040922176</v>
       </c>
       <c r="R5">
-        <v>884.315580107557</v>
+        <v>750.0778236829959</v>
       </c>
       <c r="S5">
-        <v>0.03061429170583642</v>
+        <v>0.04450073750746536</v>
       </c>
       <c r="T5">
-        <v>0.03061429170583642</v>
+        <v>0.04450073750746536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.847215666666667</v>
+        <v>3.062550666666667</v>
       </c>
       <c r="H6">
-        <v>11.541647</v>
+        <v>9.187652</v>
       </c>
       <c r="I6">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="J6">
-        <v>0.05478559966737641</v>
+        <v>0.06849600470812313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N6">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O6">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P6">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q6">
-        <v>11.34850523188634</v>
+        <v>1.819840086499111</v>
       </c>
       <c r="R6">
-        <v>102.136547086977</v>
+        <v>16.378560778492</v>
       </c>
       <c r="S6">
-        <v>0.003535884831936696</v>
+        <v>0.0009717098825491687</v>
       </c>
       <c r="T6">
-        <v>0.003535884831936696</v>
+        <v>0.0009717098825491687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>53.22644</v>
       </c>
       <c r="I7">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J7">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N7">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O7">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P7">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q7">
-        <v>42.71189387878666</v>
+        <v>29.21401762367111</v>
       </c>
       <c r="R7">
-        <v>384.40704490908</v>
+        <v>262.9261586130399</v>
       </c>
       <c r="S7">
-        <v>0.01330786166313363</v>
+        <v>0.01559892533661949</v>
       </c>
       <c r="T7">
-        <v>0.01330786166313363</v>
+        <v>0.01559892533661949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>53.22644</v>
       </c>
       <c r="I8">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J8">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.032622</v>
       </c>
       <c r="O8">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P8">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q8">
         <v>207.1846392139645</v>
@@ -948,10 +948,10 @@
         <v>1864.66175292568</v>
       </c>
       <c r="S8">
-        <v>0.06455308503084373</v>
+        <v>0.1106269517471098</v>
       </c>
       <c r="T8">
-        <v>0.06455308503084374</v>
+        <v>0.1106269517471098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>53.22644</v>
       </c>
       <c r="I9">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J9">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N9">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O9">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P9">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q9">
-        <v>55.53478199206668</v>
+        <v>13.40104553265778</v>
       </c>
       <c r="R9">
-        <v>499.8130379286</v>
+        <v>120.60940979392</v>
       </c>
       <c r="S9">
-        <v>0.0173031240042897</v>
+        <v>0.00715553442150276</v>
       </c>
       <c r="T9">
-        <v>0.0173031240042897</v>
+        <v>0.00715553442150276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>53.22644</v>
       </c>
       <c r="I10">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J10">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N10">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O10">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P10">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q10">
-        <v>453.1316521777377</v>
+        <v>482.8216087997911</v>
       </c>
       <c r="R10">
-        <v>4078.18486959964</v>
+        <v>4345.394479198119</v>
       </c>
       <c r="S10">
-        <v>0.1411834689297983</v>
+        <v>0.2578042610774607</v>
       </c>
       <c r="T10">
-        <v>0.1411834689297983</v>
+        <v>0.2578042610774607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>53.22644</v>
       </c>
       <c r="I11">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="J11">
-        <v>0.2526539265634818</v>
+        <v>0.396815038797359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N11">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O11">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P11">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q11">
-        <v>52.33573101089334</v>
+        <v>10.54280344680445</v>
       </c>
       <c r="R11">
-        <v>471.02157909804</v>
+        <v>94.88523102124</v>
       </c>
       <c r="S11">
-        <v>0.01630638693541646</v>
+        <v>0.005629366214666203</v>
       </c>
       <c r="T11">
-        <v>0.01630638693541646</v>
+        <v>0.005629366214666203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H12">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I12">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J12">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N12">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O12">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P12">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q12">
-        <v>52.45981002621766</v>
+        <v>21.85903701399311</v>
       </c>
       <c r="R12">
-        <v>472.1382902359589</v>
+        <v>196.731333125938</v>
       </c>
       <c r="S12">
-        <v>0.01634504657378136</v>
+        <v>0.01167170810615922</v>
       </c>
       <c r="T12">
-        <v>0.01634504657378136</v>
+        <v>0.01167170810615922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H13">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I13">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J13">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.032622</v>
       </c>
       <c r="O13">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P13">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q13">
-        <v>254.4693252038905</v>
+        <v>155.0234122416385</v>
       </c>
       <c r="R13">
-        <v>2290.223926835014</v>
+        <v>1395.210710174746</v>
       </c>
       <c r="S13">
-        <v>0.07928570404615684</v>
+        <v>0.0827752849380744</v>
       </c>
       <c r="T13">
-        <v>0.07928570404615685</v>
+        <v>0.08277528493807437</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H14">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I14">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J14">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N14">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O14">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P14">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q14">
-        <v>68.20920002796169</v>
+        <v>10.02717100051378</v>
       </c>
       <c r="R14">
-        <v>613.8828002516551</v>
+        <v>90.244539004624</v>
       </c>
       <c r="S14">
-        <v>0.02125212711712493</v>
+        <v>0.005354042493894935</v>
       </c>
       <c r="T14">
-        <v>0.02125212711712493</v>
+        <v>0.005354042493894933</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H15">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I15">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J15">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N15">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O15">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P15">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q15">
-        <v>556.5475616129609</v>
+        <v>361.2654566675821</v>
       </c>
       <c r="R15">
-        <v>5008.928054516647</v>
+        <v>3251.389110008239</v>
       </c>
       <c r="S15">
-        <v>0.173405046845233</v>
+        <v>0.1928989349513922</v>
       </c>
       <c r="T15">
-        <v>0.173405046845233</v>
+        <v>0.1928989349513922</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.79134566666667</v>
+        <v>13.27534766666667</v>
       </c>
       <c r="H16">
-        <v>65.374037</v>
+        <v>39.826043</v>
       </c>
       <c r="I16">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943797</v>
       </c>
       <c r="J16">
-        <v>0.3103158344491261</v>
+        <v>0.2969120759943796</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N16">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O16">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P16">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q16">
-        <v>64.28004607349634</v>
+        <v>7.888525766761445</v>
       </c>
       <c r="R16">
-        <v>578.520414661467</v>
+        <v>70.99673190085301</v>
       </c>
       <c r="S16">
-        <v>0.02002790986682995</v>
+        <v>0.004212105504858929</v>
       </c>
       <c r="T16">
-        <v>0.02002790986682995</v>
+        <v>0.004212105504858928</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H17">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I17">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J17">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N17">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O17">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P17">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q17">
-        <v>14.19606400839266</v>
+        <v>5.690389789118666</v>
       </c>
       <c r="R17">
-        <v>127.764576075534</v>
+        <v>51.21350810206799</v>
       </c>
       <c r="S17">
-        <v>0.00442310651269221</v>
+        <v>0.003038403228209243</v>
       </c>
       <c r="T17">
-        <v>0.00442310651269221</v>
+        <v>0.003038403228209243</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H18">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I18">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J18">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.032622</v>
       </c>
       <c r="O18">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P18">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q18">
-        <v>68.86153089310712</v>
+        <v>40.35601575355066</v>
       </c>
       <c r="R18">
-        <v>619.753778037964</v>
+        <v>363.204141781956</v>
       </c>
       <c r="S18">
-        <v>0.02145537562997674</v>
+        <v>0.02154823361621465</v>
       </c>
       <c r="T18">
-        <v>0.02145537562997674</v>
+        <v>0.02154823361621465</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H19">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I19">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J19">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N19">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O19">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P19">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q19">
-        <v>18.45798086333667</v>
+        <v>2.610293922762667</v>
       </c>
       <c r="R19">
-        <v>166.12182777003</v>
+        <v>23.492645304864</v>
       </c>
       <c r="S19">
-        <v>0.005751003610543482</v>
+        <v>0.001393775431107231</v>
       </c>
       <c r="T19">
-        <v>0.005751003610543482</v>
+        <v>0.001393775431107231</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H20">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I20">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J20">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N20">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O20">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P20">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q20">
-        <v>150.6064319414024</v>
+        <v>94.04537191947266</v>
       </c>
       <c r="R20">
-        <v>1355.457887472622</v>
+        <v>846.4083472752538</v>
       </c>
       <c r="S20">
-        <v>0.04692485815642481</v>
+        <v>0.05021585027174765</v>
       </c>
       <c r="T20">
-        <v>0.04692485815642481</v>
+        <v>0.05021585027174765</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.896920666666666</v>
+        <v>3.455866</v>
       </c>
       <c r="H21">
-        <v>17.690762</v>
+        <v>10.367598</v>
       </c>
       <c r="I21">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="J21">
-        <v>0.08397406407792883</v>
+        <v>0.07729276657626213</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N21">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O21">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P21">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q21">
-        <v>17.39471889177133</v>
+        <v>2.053557366028667</v>
       </c>
       <c r="R21">
-        <v>156.552470025942</v>
+        <v>18.482016294258</v>
       </c>
       <c r="S21">
-        <v>0.005419720168291586</v>
+        <v>0.001096504028983357</v>
       </c>
       <c r="T21">
-        <v>0.005419720168291586</v>
+        <v>0.001096504028983357</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H22">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I22">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J22">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.407369</v>
+        <v>1.646588666666666</v>
       </c>
       <c r="N22">
-        <v>7.222106999999999</v>
+        <v>4.939766</v>
       </c>
       <c r="O22">
-        <v>0.05267229306167104</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="P22">
-        <v>0.05267229306167105</v>
+        <v>0.039310317935267</v>
       </c>
       <c r="Q22">
-        <v>50.42352331580999</v>
+        <v>11.81504044478911</v>
       </c>
       <c r="R22">
-        <v>453.8117098422899</v>
+        <v>106.335364003102</v>
       </c>
       <c r="S22">
-        <v>0.01571059515082441</v>
+        <v>0.006308681541907178</v>
       </c>
       <c r="T22">
-        <v>0.01571059515082441</v>
+        <v>0.006308681541907178</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H23">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I23">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J23">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.032622</v>
       </c>
       <c r="O23">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="P23">
-        <v>0.2555000268900398</v>
+        <v>0.278787195370394</v>
       </c>
       <c r="Q23">
-        <v>244.59181125826</v>
+        <v>83.79179212477045</v>
       </c>
       <c r="R23">
-        <v>2201.32630132434</v>
+        <v>754.1261291229342</v>
       </c>
       <c r="S23">
-        <v>0.07620813999486084</v>
+        <v>0.0447409160223402</v>
       </c>
       <c r="T23">
-        <v>0.07620813999486085</v>
+        <v>0.0447409160223402</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H24">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I24">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J24">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.130105</v>
+        <v>0.7553226666666667</v>
       </c>
       <c r="N24">
-        <v>9.390315000000001</v>
+        <v>2.265968</v>
       </c>
       <c r="O24">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="P24">
-        <v>0.068485474338916</v>
+        <v>0.01803241742850595</v>
       </c>
       <c r="Q24">
-        <v>65.56158297645001</v>
+        <v>5.419791861921778</v>
       </c>
       <c r="R24">
-        <v>590.05424678805</v>
+        <v>48.77812675729601</v>
       </c>
       <c r="S24">
-        <v>0.02042720182679566</v>
+        <v>0.002893916532919237</v>
       </c>
       <c r="T24">
-        <v>0.02042720182679566</v>
+        <v>0.002893916532919237</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H25">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I25">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J25">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.53984366666667</v>
+        <v>27.21325766666666</v>
       </c>
       <c r="N25">
-        <v>76.61953099999999</v>
+        <v>81.63977299999999</v>
       </c>
       <c r="O25">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="P25">
-        <v>0.5588017999566871</v>
+        <v>0.6496836961088899</v>
       </c>
       <c r="Q25">
-        <v>534.94454012173</v>
+        <v>195.2677960653201</v>
       </c>
       <c r="R25">
-        <v>4814.500861095569</v>
+        <v>1757.410164587881</v>
       </c>
       <c r="S25">
-        <v>0.1666741343193947</v>
+        <v>0.104263912300824</v>
       </c>
       <c r="T25">
-        <v>0.1666741343193947</v>
+        <v>0.104263912300824</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.94549</v>
+        <v>7.175465666666668</v>
       </c>
       <c r="H26">
-        <v>62.83647</v>
+        <v>21.526397</v>
       </c>
       <c r="I26">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="J26">
-        <v>0.2982705752420869</v>
+        <v>0.1604841139238761</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.949797</v>
+        <v>0.5942236666666667</v>
       </c>
       <c r="N26">
-        <v>8.849391000000001</v>
+        <v>1.782671</v>
       </c>
       <c r="O26">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="P26">
-        <v>0.06454040575268606</v>
+        <v>0.01418637315694314</v>
       </c>
       <c r="Q26">
-        <v>61.78494356553</v>
+        <v>4.263831518487446</v>
       </c>
       <c r="R26">
-        <v>556.0644920897701</v>
+        <v>38.37448366638701</v>
       </c>
       <c r="S26">
-        <v>0.01925050395021137</v>
+        <v>0.00227668752588548</v>
       </c>
       <c r="T26">
-        <v>0.01925050395021137</v>
+        <v>0.00227668752588548</v>
       </c>
     </row>
   </sheetData>
